--- a/02_output/KAK_all_excel_2024_09_20.xlsx
+++ b/02_output/KAK_all_excel_2024_09_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_B89231273CB967B7E8E5BEEAFF3F159CFA984DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834B15FF-6413-474A-82BF-80C97830A313}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_B89231273CB967B7E8E5BEEAFF3F159CFA984DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC2E63A-FBCC-4232-8D4F-3B79FF225EE8}"/>
   <bookViews>
-    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5" yWindow="0" windowWidth="19190" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1470,11 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32:Z34"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1577,7 +1576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>63.155686923215299</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>60.221930030830102</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>55.4361627507066</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>66.514891488887997</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>57.860811274120103</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>50.2469118293346</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>37.082849120520798</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>36.8956658528624</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>20.476493097582999</v>
       </c>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>29.806861883357801</v>
       </c>
     </row>
-    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>46.595997975542303</v>
       </c>
     </row>
-    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>56.339437721108702</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>43.393578756333099</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>56.8339970941201</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>40.596686682904</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>169</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>47.283185907829797</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>52.910496098250199</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>45.690534378034897</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>41.5334828433826</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>47.2512590269463</v>
       </c>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>50.499707605721902</v>
       </c>
     </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>29.1133333989272</v>
       </c>
     </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>34.259241984517502</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>27.905661689812099</v>
       </c>
     </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>246</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>39.6727667720453</v>
       </c>
     </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>43.006286758948299</v>
       </c>
     </row>
-    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>264</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>32.370319339472601</v>
       </c>
     </row>
-    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>273</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>45.373752381780797</v>
       </c>
     </row>
-    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>282</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>55.636957773962898</v>
       </c>
     </row>
-    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>30.960473407259901</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>326</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>21.195390450987901</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>33.4292951766583</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>20.3658198940436</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>351</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>22.902846795743699</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>359</v>
       </c>
@@ -5215,15 +5214,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF39" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="6_1_1"/>
-        <filter val="6_1_2"/>
-        <filter val="6_1_3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AF39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
